--- a/RSU/reactionCases.xlsx
+++ b/RSU/reactionCases.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsal\Documents\MSXVI - 2\Readable version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59998BCD-5345-4952-A2B1-ABEF292F8391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3146D-120A-4A94-A66C-83CE2ABAEF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>R1X-1</t>
   </si>
@@ -118,13 +119,28 @@
   </si>
   <si>
     <t>AyzS</t>
+  </si>
+  <si>
+    <t>Rest + Bump</t>
+  </si>
+  <si>
+    <t>Accel + Right Turn + Bump</t>
+  </si>
+  <si>
+    <t>Accel + Left Turn + Bump</t>
+  </si>
+  <si>
+    <t>Braking + Right Turn + Bump</t>
+  </si>
+  <si>
+    <t>Braking + Left Turn + Bump</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,25 +177,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444716"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038484"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,24 +207,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.099978637043367"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,54 +239,76 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,7 +480,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -466,9 +504,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -492,7 +530,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -527,7 +565,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -545,7 +583,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -570,7 +608,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -606,36 +644,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8C6C53-61F9-45D7-88CF-6E987866D958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8C6C53-61F9-45D7-88CF-6E987866D958}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" customWidth="true"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="true"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="true"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="true"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="true"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="true"/>
-    <col min="10" max="10" width="12.25" style="1" customWidth="true"/>
-    <col min="13" max="13" width="12.25" style="1" customWidth="true"/>
-    <col min="15" max="15" width="12.25" style="1" customWidth="true"/>
-    <col min="16" max="16" width="15.625" style="1" customWidth="true"/>
-    <col min="17" max="17" width="11.5703125" style="1" customWidth="true"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="true"/>
-    <col min="11" max="11" width="12.25" style="1" customWidth="true"/>
-    <col min="12" max="12" width="12.25" style="1" customWidth="true"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -690,49 +722,49 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2958.1512317749161</v>
+        <v>2817.9727476648031</v>
       </c>
       <c r="D2" s="1">
-        <v>-752.02567034121864</v>
+        <v>-1411.0766544736086</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>-2457.2484018811806</v>
+        <v>-2140.0684495816531</v>
       </c>
       <c r="G2" s="1">
-        <v>1758.0137023310469</v>
+        <v>3276.0166000921304</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2958.1512317749161</v>
+        <v>2817.9727476648031</v>
       </c>
       <c r="J2" s="1">
-        <v>-752.02567034121864</v>
+        <v>-1411.0766544736086</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>-2457.2484018811806</v>
+        <v>-2140.0684495816531</v>
       </c>
       <c r="M2" s="1">
-        <v>1758.0137023310469</v>
+        <v>3276.0166000921304</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>-2087.0951245572401</v>
+        <v>-1961.0827645828876</v>
       </c>
       <c r="P2" s="1">
-        <v>-230.07331737859784</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
+        <v>-651.88485078090309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -740,49 +772,49 @@
         <v>1082.700257</v>
       </c>
       <c r="C3" s="9">
-        <v>2544.4087731204218</v>
+        <v>2812.9609945584261</v>
       </c>
       <c r="D3" s="9">
-        <v>-1692.8334394566716</v>
+        <v>-2131.83148307498</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>-1876.316606825211</v>
+        <v>-1788.6278494179869</v>
       </c>
       <c r="G3" s="9">
-        <v>2404.2749431649204</v>
+        <v>4052.4425440847458</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="9">
-        <v>2544.4087731204218</v>
+        <v>2812.9609945584261</v>
       </c>
       <c r="J3" s="9">
-        <v>-1692.8334394566716</v>
+        <v>-2131.83148307498</v>
       </c>
       <c r="K3" s="9">
         <v>1082.700257</v>
       </c>
       <c r="L3" s="9">
-        <v>-1876.316606825211</v>
+        <v>-1788.6278494179869</v>
       </c>
       <c r="M3" s="9">
-        <v>2404.2749431649204</v>
+        <v>4052.4425440847458</v>
       </c>
       <c r="N3" s="9">
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>-2783.7173595633358</v>
+        <v>-2838.6193593916109</v>
       </c>
       <c r="P3" s="9">
-        <v>0.0002658224916682206</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
+        <v>-620.46303766702567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -790,49 +822,49 @@
         <v>-729.91436999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>3777.9787769801401</v>
+        <v>3782.4368213953717</v>
       </c>
       <c r="D4" s="1">
-        <v>558.12442581455866</v>
+        <v>-257.28360375681825</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>-3311.0631708962428</v>
+        <v>-3089.3849074264012</v>
       </c>
       <c r="G4" s="1">
-        <v>-22.356170048711835</v>
+        <v>1656.1696405777568</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3777.9787769801401</v>
+        <v>3782.4368213953717</v>
       </c>
       <c r="J4" s="1">
-        <v>558.12442581455866</v>
+        <v>-257.28360375681825</v>
       </c>
       <c r="K4" s="1">
         <v>-729.91436999999996</v>
       </c>
       <c r="L4" s="1">
-        <v>-3311.0631708962428</v>
+        <v>-3089.3849074264012</v>
       </c>
       <c r="M4" s="1">
-        <v>-22.356170048711835</v>
+        <v>1656.1696405777568</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-1945.4816920161174</v>
+        <v>-2000.8548673085245</v>
       </c>
       <c r="P4" s="1">
-        <v>-256.24003165075368</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
+        <v>-654.61113211003067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -840,49 +872,49 @@
         <v>998.81114749999995</v>
       </c>
       <c r="C5" s="9">
-        <v>1531.2059629813368</v>
+        <v>947.9695022551042</v>
       </c>
       <c r="D5" s="9">
-        <v>-2977.4088522738452</v>
+        <v>-3327.6492479780254</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>29.653824476621708</v>
+        <v>808.74857144300097</v>
       </c>
       <c r="G5" s="9">
-        <v>4911.1215581957576</v>
+        <v>6125.3415571408032</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>1531.2059629813368</v>
+        <v>947.9695022551042</v>
       </c>
       <c r="J5" s="9">
-        <v>-2977.4088522738452</v>
+        <v>-3327.6492479780254</v>
       </c>
       <c r="K5" s="9">
         <v>998.81114749999995</v>
       </c>
       <c r="L5" s="9">
-        <v>29.653824476621708</v>
+        <v>808.74857144300097</v>
       </c>
       <c r="M5" s="9">
-        <v>4911.1215581957576</v>
+        <v>6125.3415571408032</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>-2723.9145970771483</v>
+        <v>-2404.1601610139401</v>
       </c>
       <c r="P5" s="9">
-        <v>-27.034429003338285</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
+        <v>-660.18504942695517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -890,162 +922,162 @@
         <v>-673.35959749999995</v>
       </c>
       <c r="C6" s="1">
-        <v>3110.1363583583129</v>
+        <v>2535.6270943917489</v>
       </c>
       <c r="D6" s="1">
-        <v>-547.25442173985641</v>
+        <v>-1220.6739944779476</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>-2012.9740889730012</v>
+        <v>-1319.1910579374883</v>
       </c>
       <c r="G6" s="1">
-        <v>1976.9644806833278</v>
+        <v>3254.950996783808</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>3110.1363583583129</v>
+        <v>2535.6270943917489</v>
       </c>
       <c r="J6" s="1">
-        <v>-547.25442173985641</v>
+        <v>-1220.6739944779476</v>
       </c>
       <c r="K6" s="1">
         <v>-673.35959749999995</v>
       </c>
       <c r="L6" s="1">
-        <v>-2012.9740889730012</v>
+        <v>-1319.1910579374883</v>
       </c>
       <c r="M6" s="1">
-        <v>1976.9644806833278</v>
+        <v>3254.950996783808</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>-2023.4045122533787</v>
+        <v>-1767.4246256334293</v>
       </c>
       <c r="P6" s="1">
-        <v>-242.6375899677322</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.25">
+        <v>-633.03565490419487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>SQRT(B2^2+C2^2+D2^2)</f>
-        <v>2378.8157382554664</v>
+        <v>3151.5246677413065</v>
       </c>
       <c r="E10" s="1">
         <f>SQRT(E2^2+F2^2+G2^2)</f>
-        <v>3134.3366521837966</v>
+        <v>3913.0777826378589</v>
       </c>
       <c r="H10" s="1">
         <f>SQRT(H2^2+I2^2+J2^2)</f>
-        <v>2378.8157382554664</v>
+        <v>3151.5246677413065</v>
       </c>
       <c r="K10" s="1">
         <f>SQRT(K2^2+L2^2+M2^2)</f>
-        <v>3134.3366521837966</v>
+        <v>3913.0777826378589</v>
       </c>
       <c r="N10" s="1">
         <f>SQRT(N2^2+O2^2+P2^2)</f>
-        <v>1965.8111749618258</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.25">
+        <v>2066.5912678180225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ref="B11:E14" si="0">SQRT(B3^2+C3^2+D3^2)</f>
-        <v>2664.5253522225471</v>
+        <v>3691.8416644873414</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>3235.1657647451379</v>
+        <v>4429.6139963682681</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ref="H11:H14" si="1">SQRT(H3^2+I3^2+J3^2)</f>
-        <v>2434.6366271229931</v>
+        <v>3529.5120100570275</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K14" si="2">SQRT(K3^2+L3^2+M3^2)</f>
-        <v>3411.5300631662117</v>
+        <v>4560.0131582408321</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ref="N11:N14" si="3">SQRT(N3^2+O3^2+P3^2)</f>
-        <v>2542.1651100022486</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.25">
+        <v>2905.6383547550845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>2997.4581418237194</v>
+        <v>3860.8027854504708</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>2771.5994408831039</v>
+        <v>3505.3098271915269</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>2907.2289769560307</v>
+        <v>3791.177015203803</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>2866.1016116383648</v>
+        <v>3580.4988440352818</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>2005.7428609595604</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.25">
+        <v>2105.2163628270109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>2533.4032205906938</v>
+        <v>3601.3218966297327</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4771.4104093129927</v>
+        <v>6178.5017150962431</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>2328.198481600964</v>
+        <v>3460.0427301948898</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>4874.8313819526766</v>
+        <v>6258.7144967491113</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>1597.0302567384997</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.25">
+        <v>2493.1567097343573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>2417.1852268040379</v>
+        <v>2893.5899692516309</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>3180.9603470793772</v>
+        <v>3512.117742731034</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>2321.5019433837069</v>
+        <v>2814.1516950243267</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>3251.4491964717381</v>
+        <v>3576.0850362304723</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>1328.4948710185527</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.25">
+        <v>1877.3715529099322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18"/>
     </row>
   </sheetData>
@@ -1054,26 +1086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.25" customWidth="true"/>
-    <col min="3" max="3" width="11.625" customWidth="true"/>
-    <col min="4" max="4" width="11.625" customWidth="true"/>
-    <col min="5" max="5" width="11.625" customWidth="true"/>
-    <col min="6" max="6" width="11.625" customWidth="true"/>
-    <col min="7" max="7" width="11.625" customWidth="true"/>
-    <col min="8" max="8" width="11.625" customWidth="true"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="14" t="s">
         <v>20</v>
@@ -1097,134 +1124,342 @@
         <v>26</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>3052.2452914049377</v>
-      </c>
-      <c r="D2" s="0">
-        <v>75.736336887941064</v>
-      </c>
-      <c r="E2" s="0">
-        <v>3021.370862064326</v>
-      </c>
-      <c r="F2" s="0">
-        <v>234.41855500843863</v>
-      </c>
-      <c r="G2" s="0">
-        <v>2099.7380289741373</v>
-      </c>
-      <c r="H2" s="0">
-        <v>276.29066640877852</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3151.5246677413061</v>
+      </c>
+      <c r="D2">
+        <v>63.400958793617839</v>
+      </c>
+      <c r="E2">
+        <v>3913.0777826378589</v>
+      </c>
+      <c r="F2">
+        <v>213.15470746480102</v>
+      </c>
+      <c r="G2">
+        <v>2066.5912678180225</v>
+      </c>
+      <c r="H2">
+        <v>288.38735781394644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15">
         <v>1082.700257</v>
       </c>
       <c r="C3" s="15">
-        <v>3056.0924492683257</v>
+        <v>3529.5120100570275</v>
       </c>
       <c r="D3" s="15">
-        <v>56.363579735127821</v>
+        <v>52.842956205783253</v>
       </c>
       <c r="E3" s="15">
-        <v>3049.7708129265638</v>
+        <v>4429.6139963682681</v>
       </c>
       <c r="F3" s="15">
-        <v>217.96877999538532</v>
+        <v>203.8152398792474</v>
       </c>
       <c r="G3" s="15">
-        <v>2783.7173595633481</v>
+        <v>2905.638354755084</v>
       </c>
       <c r="H3" s="15">
-        <v>269.99999452871651</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
+        <v>282.32974558409353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4">
         <v>-729.91436999999996</v>
       </c>
-      <c r="C4" s="0">
-        <v>3818.9823924709563</v>
-      </c>
-      <c r="D4" s="0">
-        <v>98.403577757958033</v>
-      </c>
-      <c r="E4" s="0">
-        <v>3311.1386440324018</v>
-      </c>
-      <c r="F4" s="0">
-        <v>270.38685300131658</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1962.2838652423031</v>
-      </c>
-      <c r="H4" s="0">
-        <v>277.50325695929951</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3791.1770152038034</v>
+      </c>
+      <c r="D4">
+        <v>86.108701012951016</v>
+      </c>
+      <c r="E4">
+        <v>3505.3098271915269</v>
+      </c>
+      <c r="F4">
+        <v>241.80495559837638</v>
+      </c>
+      <c r="G4">
+        <v>2105.2163628270109</v>
+      </c>
+      <c r="H4">
+        <v>288.11632238779026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B5" s="15">
         <v>998.81114749999995</v>
       </c>
       <c r="C5" s="15">
-        <v>3348.067379051422</v>
+        <v>3460.0427301948898</v>
       </c>
       <c r="D5" s="15">
-        <v>27.215611245316683</v>
+        <v>15.901014130274882</v>
       </c>
       <c r="E5" s="15">
-        <v>4911.2110837023911</v>
+        <v>6178.5017150962431</v>
       </c>
       <c r="F5" s="15">
-        <v>179.65404677504856</v>
+        <v>172.47855889448388</v>
       </c>
       <c r="G5" s="15">
-        <v>2724.0487500266036</v>
+        <v>2493.1567097343573</v>
       </c>
       <c r="H5" s="15">
-        <v>270.56863303618877</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
+        <v>285.35500125065784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>-673.35959749999995</v>
+      </c>
+      <c r="C6">
+        <v>2814.1516950243272</v>
+      </c>
+      <c r="D6">
+        <v>64.293412310865108</v>
+      </c>
+      <c r="E6">
+        <v>3512.1177427310345</v>
+      </c>
+      <c r="F6">
+        <v>202.06209900771134</v>
+      </c>
+      <c r="G6">
+        <v>1877.3715529099322</v>
+      </c>
+      <c r="H6">
+        <v>289.70591955451579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7CE5C4-969E-4DA4-8214-1E5FA9436913}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="8" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="22">
+        <f>Sheet2!B2*2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="22">
+        <f>Sheet2!C2*2</f>
+        <v>6303.0493354826122</v>
+      </c>
+      <c r="D2" s="22">
+        <f>Sheet2!D2</f>
+        <v>63.400958793617839</v>
+      </c>
+      <c r="E2" s="22">
+        <f>Sheet2!E2*2</f>
+        <v>7826.1555652757179</v>
+      </c>
+      <c r="F2" s="22">
+        <f>Sheet2!F2</f>
+        <v>213.15470746480102</v>
+      </c>
+      <c r="G2" s="22">
+        <f>Sheet2!G2*2</f>
+        <v>4133.182535636045</v>
+      </c>
+      <c r="H2" s="22">
+        <f>Sheet2!H2</f>
+        <v>288.38735781394644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="22">
+        <f>Sheet2!B3*2</f>
+        <v>2165.4005139999999</v>
+      </c>
+      <c r="C3" s="22">
+        <f>Sheet2!C3*2</f>
+        <v>7059.024020114055</v>
+      </c>
+      <c r="D3" s="22">
+        <f>Sheet2!D3</f>
+        <v>52.842956205783253</v>
+      </c>
+      <c r="E3" s="22">
+        <f>Sheet2!E3*2</f>
+        <v>8859.2279927365362</v>
+      </c>
+      <c r="F3" s="22">
+        <f>Sheet2!F3</f>
+        <v>203.8152398792474</v>
+      </c>
+      <c r="G3" s="22">
+        <f>Sheet2!G3*2</f>
+        <v>5811.2767095101681</v>
+      </c>
+      <c r="H3" s="22">
+        <f>Sheet2!H3</f>
+        <v>282.32974558409353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="22">
+        <f>Sheet2!B4*2</f>
+        <v>-1459.8287399999999</v>
+      </c>
+      <c r="C4" s="22">
+        <f>Sheet2!C4*2</f>
+        <v>7582.3540304076068</v>
+      </c>
+      <c r="D4" s="22">
+        <f>Sheet2!D4</f>
+        <v>86.108701012951016</v>
+      </c>
+      <c r="E4" s="22">
+        <f>Sheet2!E4*2</f>
+        <v>7010.6196543830538</v>
+      </c>
+      <c r="F4" s="22">
+        <f>Sheet2!F4</f>
+        <v>241.80495559837638</v>
+      </c>
+      <c r="G4" s="22">
+        <f>Sheet2!G4*2</f>
+        <v>4210.4327256540219</v>
+      </c>
+      <c r="H4" s="22">
+        <f>Sheet2!H4</f>
+        <v>288.11632238779026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="22">
+        <f>Sheet2!B5*2</f>
+        <v>1997.6222949999999</v>
+      </c>
+      <c r="C5" s="22">
+        <f>Sheet2!C5*2</f>
+        <v>6920.0854603897797</v>
+      </c>
+      <c r="D5" s="22">
+        <f>Sheet2!D5</f>
+        <v>15.901014130274882</v>
+      </c>
+      <c r="E5" s="22">
+        <f>Sheet2!E5*2</f>
+        <v>12357.003430192486</v>
+      </c>
+      <c r="F5" s="22">
+        <f>Sheet2!F5</f>
+        <v>172.47855889448388</v>
+      </c>
+      <c r="G5" s="22">
+        <f>Sheet2!G5*2</f>
+        <v>4986.3134194687145</v>
+      </c>
+      <c r="H5" s="22">
+        <f>Sheet2!H5</f>
+        <v>285.35500125065784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0">
-        <v>-673.35959749999995</v>
-      </c>
-      <c r="C6" s="0">
-        <v>3157.9163335490912</v>
-      </c>
-      <c r="D6" s="0">
-        <v>80.020486116197105</v>
-      </c>
-      <c r="E6" s="0">
-        <v>2821.4275182538686</v>
-      </c>
-      <c r="F6" s="0">
-        <v>225.51708629746588</v>
-      </c>
-      <c r="G6" s="0">
-        <v>2037.9005913617777</v>
-      </c>
-      <c r="H6" s="0">
-        <v>276.83800133016655</v>
+      <c r="B6" s="22">
+        <f>Sheet2!B6*2</f>
+        <v>-1346.7191949999999</v>
+      </c>
+      <c r="C6" s="22">
+        <f>Sheet2!C6*2</f>
+        <v>5628.3033900486544</v>
+      </c>
+      <c r="D6" s="22">
+        <f>Sheet2!D6</f>
+        <v>64.293412310865108</v>
+      </c>
+      <c r="E6" s="22">
+        <f>Sheet2!E6*2</f>
+        <v>7024.2354854620689</v>
+      </c>
+      <c r="F6" s="22">
+        <f>Sheet2!F6</f>
+        <v>202.06209900771134</v>
+      </c>
+      <c r="G6" s="22">
+        <f>Sheet2!G6*2</f>
+        <v>3754.7431058198645</v>
+      </c>
+      <c r="H6" s="22">
+        <f>Sheet2!H6</f>
+        <v>289.70591955451579</v>
       </c>
     </row>
   </sheetData>
